--- a/Data_clean/MCAS/Estados_US/Edos_USA_2023/MONTANA_2023.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2023/MONTANA_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D171"/>
+  <dimension ref="A1:D165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,34 +360,34 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AGUASCALIENTES</t>
+          <t>Aguascalientes</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>AGUASCALIENTES</t>
+          <t>Aguascalientes</t>
         </is>
       </c>
       <c r="C2">
@@ -400,7 +400,7 @@
     <row r="3">
       <c r="B3" t="inlineStr">
         <is>
-          <t>CALVILLO</t>
+          <t>Calvillo</t>
         </is>
       </c>
       <c r="C3">
@@ -413,7 +413,7 @@
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C4">
@@ -426,12 +426,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CAMPECHE</t>
+          <t>Campeche</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ESCÁRCEGA</t>
+          <t>Escárcega</t>
         </is>
       </c>
       <c r="C5">
@@ -444,7 +444,7 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C6">
@@ -457,12 +457,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CHIAPAS</t>
+          <t>Chiapas</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ACACOYAGUA</t>
+          <t>Acacoyagua</t>
         </is>
       </c>
       <c r="C7">
@@ -475,7 +475,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>ANGEL ALBINO CORZO</t>
+          <t>Angel Albino Corzo</t>
         </is>
       </c>
       <c r="C8">
@@ -488,7 +488,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>EL BOSQUE</t>
+          <t>El Bosque</t>
         </is>
       </c>
       <c r="C9">
@@ -501,7 +501,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>FRONTERA COMALAPA</t>
+          <t>Frontera Comalapa</t>
         </is>
       </c>
       <c r="C10">
@@ -514,7 +514,7 @@
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>IXTAPA</t>
+          <t>Ixtapa</t>
         </is>
       </c>
       <c r="C11">
@@ -527,7 +527,7 @@
     <row r="12">
       <c r="B12" t="inlineStr">
         <is>
-          <t>MAPASTEPEC</t>
+          <t>Mapastepec</t>
         </is>
       </c>
       <c r="C12">
@@ -540,7 +540,7 @@
     <row r="13">
       <c r="B13" t="inlineStr">
         <is>
-          <t>MITONTIC</t>
+          <t>Mitontic</t>
         </is>
       </c>
       <c r="C13">
@@ -553,7 +553,7 @@
     <row r="14">
       <c r="B14" t="inlineStr">
         <is>
-          <t>OCOSINGO</t>
+          <t>Ocosingo</t>
         </is>
       </c>
       <c r="C14">
@@ -566,7 +566,7 @@
     <row r="15">
       <c r="B15" t="inlineStr">
         <is>
-          <t>OCOTEPEC</t>
+          <t>Ocotepec</t>
         </is>
       </c>
       <c r="C15">
@@ -579,7 +579,7 @@
     <row r="16">
       <c r="B16" t="inlineStr">
         <is>
-          <t>PALENQUE</t>
+          <t>Palenque</t>
         </is>
       </c>
       <c r="C16">
@@ -592,7 +592,7 @@
     <row r="17">
       <c r="B17" t="inlineStr">
         <is>
-          <t>SAN CRISTÓBAL DE LAS CASAS</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C17">
@@ -605,7 +605,7 @@
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t>SILTEPEC</t>
+          <t>Siltepec</t>
         </is>
       </c>
       <c r="C18">
@@ -618,7 +618,7 @@
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
-          <t>SIMOJOVEL</t>
+          <t>Simojovel</t>
         </is>
       </c>
       <c r="C19">
@@ -631,7 +631,7 @@
     <row r="20">
       <c r="B20" t="inlineStr">
         <is>
-          <t>TAPACHULA</t>
+          <t>Tapachula</t>
         </is>
       </c>
       <c r="C20">
@@ -644,7 +644,7 @@
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t>TECPATÁN</t>
+          <t>Tecpatán</t>
         </is>
       </c>
       <c r="C21">
@@ -657,7 +657,7 @@
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t>TUXTLA GUTIÉRREZ</t>
+          <t>Tuxtla Gutiérrez</t>
         </is>
       </c>
       <c r="C22">
@@ -670,7 +670,7 @@
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
-          <t>VILLAFLORES</t>
+          <t>Villaflores</t>
         </is>
       </c>
       <c r="C23">
@@ -683,7 +683,7 @@
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C24">
@@ -696,12 +696,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CHIHUAHUA</t>
+          <t>Chihuahua</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BUENAVENTURA</t>
+          <t>Buenaventura</t>
         </is>
       </c>
       <c r="C25">
@@ -714,7 +714,7 @@
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>CHIHUAHUA</t>
+          <t>Chihuahua</t>
         </is>
       </c>
       <c r="C26">
@@ -727,7 +727,7 @@
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t>CUAUHTÉMOC</t>
+          <t>Cuauhtémoc</t>
         </is>
       </c>
       <c r="C27">
@@ -740,7 +740,7 @@
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>IGNACIO ZARAGOZA</t>
+          <t>Ignacio Zaragoza</t>
         </is>
       </c>
       <c r="C28">
@@ -753,7 +753,7 @@
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t>JUÁREZ</t>
+          <t>Juárez</t>
         </is>
       </c>
       <c r="C29">
@@ -766,7 +766,7 @@
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>NUEVO CASAS GRANDES</t>
+          <t>Nuevo Casas Grandes</t>
         </is>
       </c>
       <c r="C30">
@@ -779,7 +779,7 @@
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>SAUCILLO</t>
+          <t>Saucillo</t>
         </is>
       </c>
       <c r="C31">
@@ -792,7 +792,7 @@
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C32">
@@ -805,12 +805,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>CIUDAD DE MÉXICO</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>BENITO JUÁREZ</t>
+          <t>Benito Juárez</t>
         </is>
       </c>
       <c r="C33">
@@ -823,7 +823,7 @@
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t>CUAUHTÉMOC</t>
+          <t>Cuauhtémoc</t>
         </is>
       </c>
       <c r="C34">
@@ -836,7 +836,7 @@
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>GUSTAVO A. MADERO</t>
+          <t>Gustavo A. Madero</t>
         </is>
       </c>
       <c r="C35">
@@ -849,7 +849,7 @@
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>IZTAPALAPA</t>
+          <t>Iztapalapa</t>
         </is>
       </c>
       <c r="C36">
@@ -862,7 +862,7 @@
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t>MIGUEL HIDALGO</t>
+          <t>Miguel Hidalgo</t>
         </is>
       </c>
       <c r="C37">
@@ -875,7 +875,7 @@
     <row r="38">
       <c r="B38" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C38">
@@ -888,12 +888,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>COAHUILA DE ZARAGOZA</t>
+          <t>Coahuila De Zaragoza</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>MÚZQUIZ</t>
+          <t>Múzquiz</t>
         </is>
       </c>
       <c r="C39">
@@ -906,7 +906,7 @@
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t>PIEDRAS NEGRAS</t>
+          <t>Piedras Negras</t>
         </is>
       </c>
       <c r="C40">
@@ -919,7 +919,7 @@
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>TORREÓN</t>
+          <t>Torreón</t>
         </is>
       </c>
       <c r="C41">
@@ -932,7 +932,7 @@
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C42">
@@ -945,12 +945,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>DURANGO</t>
+          <t>Durango</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>CANATLÁN</t>
+          <t>Canatlán</t>
         </is>
       </c>
       <c r="C43">
@@ -963,7 +963,7 @@
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t>DURANGO</t>
+          <t>Durango</t>
         </is>
       </c>
       <c r="C44">
@@ -976,7 +976,7 @@
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>GUADALUPE VICTORIA</t>
+          <t>Guadalupe Victoria</t>
         </is>
       </c>
       <c r="C45">
@@ -989,7 +989,7 @@
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>MAPIMÍ</t>
+          <t>Mapimí</t>
         </is>
       </c>
       <c r="C46">
@@ -1002,7 +1002,7 @@
     <row r="47">
       <c r="B47" t="inlineStr">
         <is>
-          <t>VICENTE GUERRERO</t>
+          <t>Vicente Guerrero</t>
         </is>
       </c>
       <c r="C47">
@@ -1015,7 +1015,7 @@
     <row r="48">
       <c r="B48" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C48">
@@ -1028,12 +1028,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ESTADO DE MÉXICO</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ACAMBAY DE RUÍZ CASTAÑEDA</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C49">
@@ -1046,7 +1046,7 @@
     <row r="50">
       <c r="B50" t="inlineStr">
         <is>
-          <t>ATLACOMULCO</t>
+          <t>Atlacomulco</t>
         </is>
       </c>
       <c r="C50">
@@ -1059,7 +1059,7 @@
     <row r="51">
       <c r="B51" t="inlineStr">
         <is>
-          <t>ECATEPEC DE MORELOS</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C51">
@@ -1072,7 +1072,7 @@
     <row r="52">
       <c r="B52" t="inlineStr">
         <is>
-          <t>JOCOTITLÁN</t>
+          <t>Jocotitlán</t>
         </is>
       </c>
       <c r="C52">
@@ -1085,7 +1085,7 @@
     <row r="53">
       <c r="B53" t="inlineStr">
         <is>
-          <t>NEZAHUALCÓYOTL</t>
+          <t>Nezahualcóyotl</t>
         </is>
       </c>
       <c r="C53">
@@ -1098,7 +1098,7 @@
     <row r="54">
       <c r="B54" t="inlineStr">
         <is>
-          <t>SAN FELIPE DEL PROGRESO</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C54">
@@ -1111,7 +1111,7 @@
     <row r="55">
       <c r="B55" t="inlineStr">
         <is>
-          <t>TENANCINGO</t>
+          <t>Tenancingo</t>
         </is>
       </c>
       <c r="C55">
@@ -1124,7 +1124,7 @@
     <row r="56">
       <c r="B56" t="inlineStr">
         <is>
-          <t>TOLUCA</t>
+          <t>Toluca</t>
         </is>
       </c>
       <c r="C56">
@@ -1137,7 +1137,7 @@
     <row r="57">
       <c r="B57" t="inlineStr">
         <is>
-          <t>VILLA GUERRERO</t>
+          <t>Villa Guerrero</t>
         </is>
       </c>
       <c r="C57">
@@ -1150,7 +1150,7 @@
     <row r="58">
       <c r="B58" t="inlineStr">
         <is>
-          <t>VILLA VICTORIA</t>
+          <t>Villa Victoria</t>
         </is>
       </c>
       <c r="C58">
@@ -1163,7 +1163,7 @@
     <row r="59">
       <c r="B59" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C59">
@@ -1176,12 +1176,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>GUANAJUATO</t>
+          <t>Guanajuato</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>ACÁMBARO</t>
+          <t>Acámbaro</t>
         </is>
       </c>
       <c r="C60">
@@ -1194,7 +1194,7 @@
     <row r="61">
       <c r="B61" t="inlineStr">
         <is>
-          <t>APASEO EL ALTO</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C61">
@@ -1207,7 +1207,7 @@
     <row r="62">
       <c r="B62" t="inlineStr">
         <is>
-          <t>CELAYA</t>
+          <t>Celaya</t>
         </is>
       </c>
       <c r="C62">
@@ -1220,7 +1220,7 @@
     <row r="63">
       <c r="B63" t="inlineStr">
         <is>
-          <t>DOCTOR MORA</t>
+          <t>Doctor Mora</t>
         </is>
       </c>
       <c r="C63">
@@ -1233,7 +1233,7 @@
     <row r="64">
       <c r="B64" t="inlineStr">
         <is>
-          <t>GUANAJUATO</t>
+          <t>Guanajuato</t>
         </is>
       </c>
       <c r="C64">
@@ -1246,7 +1246,7 @@
     <row r="65">
       <c r="B65" t="inlineStr">
         <is>
-          <t>LEÓN</t>
+          <t>León</t>
         </is>
       </c>
       <c r="C65">
@@ -1259,7 +1259,7 @@
     <row r="66">
       <c r="B66" t="inlineStr">
         <is>
-          <t>ROMITA</t>
+          <t>Romita</t>
         </is>
       </c>
       <c r="C66">
@@ -1272,7 +1272,7 @@
     <row r="67">
       <c r="B67" t="inlineStr">
         <is>
-          <t>SAN LUIS DE LA PAZ</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C67">
@@ -1285,7 +1285,7 @@
     <row r="68">
       <c r="B68" t="inlineStr">
         <is>
-          <t>SAN MIGUEL DE ALLENDE</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C68">
@@ -1298,7 +1298,7 @@
     <row r="69">
       <c r="B69" t="inlineStr">
         <is>
-          <t>SANTA CRUZ DE JUVENTINO ROSAS</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C69">
@@ -1311,7 +1311,7 @@
     <row r="70">
       <c r="B70" t="inlineStr">
         <is>
-          <t>SILAO DE LA VICTORIA</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C70">
@@ -1324,7 +1324,7 @@
     <row r="71">
       <c r="B71" t="inlineStr">
         <is>
-          <t>VILLAGRÁN</t>
+          <t>Villagrán</t>
         </is>
       </c>
       <c r="C71">
@@ -1337,7 +1337,7 @@
     <row r="72">
       <c r="B72" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C72">
@@ -1350,12 +1350,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>GUERRERO</t>
+          <t>Guerrero</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>ATOYAC DE ÁLVAREZ</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C73">
@@ -1368,7 +1368,7 @@
     <row r="74">
       <c r="B74" t="inlineStr">
         <is>
-          <t>CHILPANCINGO DE LOS BRAVO</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C74">
@@ -1381,7 +1381,7 @@
     <row r="75">
       <c r="B75" t="inlineStr">
         <is>
-          <t>COYUCA DE BENÍTEZ</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C75">
@@ -1394,7 +1394,7 @@
     <row r="76">
       <c r="B76" t="inlineStr">
         <is>
-          <t>TECOANAPA</t>
+          <t>Tecoanapa</t>
         </is>
       </c>
       <c r="C76">
@@ -1407,7 +1407,7 @@
     <row r="77">
       <c r="B77" t="inlineStr">
         <is>
-          <t>TÉCPAN DE GALEANA</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C77">
@@ -1420,7 +1420,7 @@
     <row r="78">
       <c r="B78" t="inlineStr">
         <is>
-          <t>ZIRÁNDARO</t>
+          <t>Zirándaro</t>
         </is>
       </c>
       <c r="C78">
@@ -1433,7 +1433,7 @@
     <row r="79">
       <c r="B79" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C79">
@@ -1446,12 +1446,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>HIDALGO</t>
+          <t>Hidalgo</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>IXMIQUILPAN</t>
+          <t>Ixmiquilpan</t>
         </is>
       </c>
       <c r="C80">
@@ -1464,7 +1464,7 @@
     <row r="81">
       <c r="B81" t="inlineStr">
         <is>
-          <t>PACHUCA DE SOTO</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C81">
@@ -1477,7 +1477,7 @@
     <row r="82">
       <c r="B82" t="inlineStr">
         <is>
-          <t>TEZONTEPEC DE ALDAMA</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C82">
@@ -1490,7 +1490,7 @@
     <row r="83">
       <c r="B83" t="inlineStr">
         <is>
-          <t>TULANCINGO DE BRAVO</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C83">
@@ -1503,7 +1503,7 @@
     <row r="84">
       <c r="B84" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C84">
@@ -1516,12 +1516,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>JALISCO</t>
+          <t>Jalisco</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>AUTLÁN DE NAVARRO</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C85">
@@ -1534,7 +1534,7 @@
     <row r="86">
       <c r="B86" t="inlineStr">
         <is>
-          <t>AYUTLA</t>
+          <t>Ayutla</t>
         </is>
       </c>
       <c r="C86">
@@ -1547,7 +1547,7 @@
     <row r="87">
       <c r="B87" t="inlineStr">
         <is>
-          <t>CABO CORRIENTES</t>
+          <t>Cabo Corrientes</t>
         </is>
       </c>
       <c r="C87">
@@ -1560,7 +1560,7 @@
     <row r="88">
       <c r="B88" t="inlineStr">
         <is>
-          <t>CASIMIRO CASTILLO</t>
+          <t>Casimiro Castillo</t>
         </is>
       </c>
       <c r="C88">
@@ -1573,7 +1573,7 @@
     <row r="89">
       <c r="B89" t="inlineStr">
         <is>
-          <t>COLOTLÁN</t>
+          <t>Colotlán</t>
         </is>
       </c>
       <c r="C89">
@@ -1586,7 +1586,7 @@
     <row r="90">
       <c r="B90" t="inlineStr">
         <is>
-          <t>GUADALAJARA</t>
+          <t>Guadalajara</t>
         </is>
       </c>
       <c r="C90">
@@ -1599,7 +1599,7 @@
     <row r="91">
       <c r="B91" t="inlineStr">
         <is>
-          <t>JESÚS MARÍA</t>
+          <t>Jesús María</t>
         </is>
       </c>
       <c r="C91">
@@ -1612,7 +1612,7 @@
     <row r="92">
       <c r="B92" t="inlineStr">
         <is>
-          <t>LAGOS DE MORENO</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C92">
@@ -1625,7 +1625,7 @@
     <row r="93">
       <c r="B93" t="inlineStr">
         <is>
-          <t>OJUELOS DE JALISCO</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C93">
@@ -1638,7 +1638,7 @@
     <row r="94">
       <c r="B94" t="inlineStr">
         <is>
-          <t>SAN GABRIEL</t>
+          <t>San Gabriel</t>
         </is>
       </c>
       <c r="C94">
@@ -1651,7 +1651,7 @@
     <row r="95">
       <c r="B95" t="inlineStr">
         <is>
-          <t>SAN JUAN DE LOS LAGOS</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C95">
@@ -1664,7 +1664,7 @@
     <row r="96">
       <c r="B96" t="inlineStr">
         <is>
-          <t>TEQUILA</t>
+          <t>Tequila</t>
         </is>
       </c>
       <c r="C96">
@@ -1677,7 +1677,7 @@
     <row r="97">
       <c r="B97" t="inlineStr">
         <is>
-          <t>TIZAPÁN EL ALTO</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C97">
@@ -1690,7 +1690,7 @@
     <row r="98">
       <c r="B98" t="inlineStr">
         <is>
-          <t>TOLIMÁN</t>
+          <t>Tolimán</t>
         </is>
       </c>
       <c r="C98">
@@ -1703,7 +1703,7 @@
     <row r="99">
       <c r="B99" t="inlineStr">
         <is>
-          <t>TOMATLÁN</t>
+          <t>Tomatlán</t>
         </is>
       </c>
       <c r="C99">
@@ -1716,7 +1716,7 @@
     <row r="100">
       <c r="B100" t="inlineStr">
         <is>
-          <t>ZAPOPAN</t>
+          <t>Zapopan</t>
         </is>
       </c>
       <c r="C100">
@@ -1729,7 +1729,7 @@
     <row r="101">
       <c r="B101" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C101">
@@ -1742,12 +1742,12 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>MICHOACÁN DE OCAMPO</t>
+          <t>Michoacán De Ocampo</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>HIDALGO</t>
+          <t>Hidalgo</t>
         </is>
       </c>
       <c r="C102">
@@ -1760,7 +1760,7 @@
     <row r="103">
       <c r="B103" t="inlineStr">
         <is>
-          <t>PARACHO</t>
+          <t>Paracho</t>
         </is>
       </c>
       <c r="C103">
@@ -1773,7 +1773,7 @@
     <row r="104">
       <c r="B104" t="inlineStr">
         <is>
-          <t>PÁTZCUARO</t>
+          <t>Pátzcuaro</t>
         </is>
       </c>
       <c r="C104">
@@ -1786,7 +1786,7 @@
     <row r="105">
       <c r="B105" t="inlineStr">
         <is>
-          <t>TLALPUJAHUA</t>
+          <t>Tlalpujahua</t>
         </is>
       </c>
       <c r="C105">
@@ -1799,7 +1799,7 @@
     <row r="106">
       <c r="B106" t="inlineStr">
         <is>
-          <t>URUAPAN</t>
+          <t>Uruapan</t>
         </is>
       </c>
       <c r="C106">
@@ -1812,7 +1812,7 @@
     <row r="107">
       <c r="B107" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C107">
@@ -1825,12 +1825,12 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>NAYARIT</t>
+          <t>Nayarit</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>DEL NAYAR</t>
+          <t>Del Nayar</t>
         </is>
       </c>
       <c r="C108">
@@ -1843,7 +1843,7 @@
     <row r="109">
       <c r="B109" t="inlineStr">
         <is>
-          <t>SAN BLAS</t>
+          <t>San Blas</t>
         </is>
       </c>
       <c r="C109">
@@ -1856,7 +1856,7 @@
     <row r="110">
       <c r="B110" t="inlineStr">
         <is>
-          <t>SANTIAGO IXCUINTLA</t>
+          <t>Santiago Ixcuintla</t>
         </is>
       </c>
       <c r="C110">
@@ -1869,7 +1869,7 @@
     <row r="111">
       <c r="B111" t="inlineStr">
         <is>
-          <t>TUXPAN</t>
+          <t>Tuxpan</t>
         </is>
       </c>
       <c r="C111">
@@ -1882,7 +1882,7 @@
     <row r="112">
       <c r="B112" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C112">
@@ -1895,12 +1895,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>NUEVO LEÓN</t>
+          <t>Nuevo León</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>SABINAS HIDALGO</t>
+          <t>Sabinas Hidalgo</t>
         </is>
       </c>
       <c r="C113">
@@ -1913,7 +1913,7 @@
     <row r="114">
       <c r="B114" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C114">
@@ -1926,12 +1926,12 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>OAXACA</t>
+          <t>Oaxaca</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>SAN JUAN LACHAO</t>
+          <t>San Juan Lachao</t>
         </is>
       </c>
       <c r="C115">
@@ -1944,7 +1944,7 @@
     <row r="116">
       <c r="B116" t="inlineStr">
         <is>
-          <t>SAN LUCAS ZOQUIÁPAM</t>
+          <t>San Lucas Zoquiápam</t>
         </is>
       </c>
       <c r="C116">
@@ -1957,7 +1957,7 @@
     <row r="117">
       <c r="B117" t="inlineStr">
         <is>
-          <t>SANTA MARÍA CHIMALAPA</t>
+          <t>Santa María Chimalapa</t>
         </is>
       </c>
       <c r="C117">
@@ -1970,7 +1970,7 @@
     <row r="118">
       <c r="B118" t="inlineStr">
         <is>
-          <t>SANTA MARÍA TONAMECA</t>
+          <t>Santa María Tonameca</t>
         </is>
       </c>
       <c r="C118">
@@ -1983,7 +1983,7 @@
     <row r="119">
       <c r="B119" t="inlineStr">
         <is>
-          <t>TLACOLULA DE MATAMOROS</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C119">
@@ -1996,7 +1996,7 @@
     <row r="120">
       <c r="B120" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C120">
@@ -2009,12 +2009,12 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>PUEBLA</t>
+          <t>Puebla</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>AJALPAN</t>
+          <t>Ajalpan</t>
         </is>
       </c>
       <c r="C121">
@@ -2027,7 +2027,7 @@
     <row r="122">
       <c r="B122" t="inlineStr">
         <is>
-          <t>CHIGNAHUAPAN</t>
+          <t>Chignahuapan</t>
         </is>
       </c>
       <c r="C122">
@@ -2040,7 +2040,7 @@
     <row r="123">
       <c r="B123" t="inlineStr">
         <is>
-          <t>CUYOACO</t>
+          <t>Cuyoaco</t>
         </is>
       </c>
       <c r="C123">
@@ -2053,7 +2053,7 @@
     <row r="124">
       <c r="B124" t="inlineStr">
         <is>
-          <t>JALPAN</t>
+          <t>Jalpan</t>
         </is>
       </c>
       <c r="C124">
@@ -2066,7 +2066,7 @@
     <row r="125">
       <c r="B125" t="inlineStr">
         <is>
-          <t>PUEBLA</t>
+          <t>Puebla</t>
         </is>
       </c>
       <c r="C125">
@@ -2079,7 +2079,7 @@
     <row r="126">
       <c r="B126" t="inlineStr">
         <is>
-          <t>SAN MARTÍN TOTOLTEPEC</t>
+          <t>San Martín Totoltepec</t>
         </is>
       </c>
       <c r="C126">
@@ -2092,7 +2092,7 @@
     <row r="127">
       <c r="B127" t="inlineStr">
         <is>
-          <t>VICENTE GUERRERO</t>
+          <t>Vicente Guerrero</t>
         </is>
       </c>
       <c r="C127">
@@ -2105,7 +2105,7 @@
     <row r="128">
       <c r="B128" t="inlineStr">
         <is>
-          <t>ZACATLÁN</t>
+          <t>Zacatlán</t>
         </is>
       </c>
       <c r="C128">
@@ -2118,7 +2118,7 @@
     <row r="129">
       <c r="B129" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C129">
@@ -2131,12 +2131,12 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>QUERÉTARO</t>
+          <t>Querétaro</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>JALPAN DE SERRA</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C130">
@@ -2149,7 +2149,7 @@
     <row r="131">
       <c r="B131" t="inlineStr">
         <is>
-          <t>QUERÉTARO</t>
+          <t>Querétaro</t>
         </is>
       </c>
       <c r="C131">
@@ -2162,7 +2162,7 @@
     <row r="132">
       <c r="B132" t="inlineStr">
         <is>
-          <t>TEQUISQUIAPAN</t>
+          <t>Tequisquiapan</t>
         </is>
       </c>
       <c r="C132">
@@ -2175,7 +2175,7 @@
     <row r="133">
       <c r="B133" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C133">
@@ -2188,12 +2188,12 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>SAN LUIS POTOSÍ</t>
+          <t>San Luis Potosí</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>CIUDAD VALLES</t>
+          <t>Ciudad Valles</t>
         </is>
       </c>
       <c r="C134">
@@ -2206,7 +2206,7 @@
     <row r="135">
       <c r="B135" t="inlineStr">
         <is>
-          <t>EBANO</t>
+          <t>Ebano</t>
         </is>
       </c>
       <c r="C135">
@@ -2219,7 +2219,7 @@
     <row r="136">
       <c r="B136" t="inlineStr">
         <is>
-          <t>MEXQUITIC DE CARMONA</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C136">
@@ -2232,7 +2232,7 @@
     <row r="137">
       <c r="B137" t="inlineStr">
         <is>
-          <t>SALINAS</t>
+          <t>Salinas</t>
         </is>
       </c>
       <c r="C137">
@@ -2245,7 +2245,7 @@
     <row r="138">
       <c r="B138" t="inlineStr">
         <is>
-          <t>SAN LUIS POTOSÍ</t>
+          <t>San Luis Potosí</t>
         </is>
       </c>
       <c r="C138">
@@ -2258,7 +2258,7 @@
     <row r="139">
       <c r="B139" t="inlineStr">
         <is>
-          <t>VILLA DE RAMOS</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C139">
@@ -2271,7 +2271,7 @@
     <row r="140">
       <c r="B140" t="inlineStr">
         <is>
-          <t>XILITLA</t>
+          <t>Xilitla</t>
         </is>
       </c>
       <c r="C140">
@@ -2284,7 +2284,7 @@
     <row r="141">
       <c r="B141" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C141">
@@ -2297,12 +2297,12 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>SINALOA</t>
+          <t>Sinaloa</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>AHOME</t>
+          <t>Ahome</t>
         </is>
       </c>
       <c r="C142">
@@ -2315,7 +2315,7 @@
     <row r="143">
       <c r="B143" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C143">
@@ -2328,12 +2328,12 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>SONORA</t>
+          <t>Sonora</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>CAJEME</t>
+          <t>Cajeme</t>
         </is>
       </c>
       <c r="C144">
@@ -2346,7 +2346,7 @@
     <row r="145">
       <c r="B145" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C145">
@@ -2359,12 +2359,12 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>TAMAULIPAS</t>
+          <t>Tamaulipas</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>VICTORIA</t>
+          <t>Victoria</t>
         </is>
       </c>
       <c r="C146">
@@ -2377,7 +2377,7 @@
     <row r="147">
       <c r="B147" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C147">
@@ -2390,12 +2390,12 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>VERACRUZ DE IGNACIO DE LA LLAVE</t>
+          <t>Veracruz De Ignacio De La Llave</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>ALPATLÁHUAC</t>
+          <t>Alpatláhuac</t>
         </is>
       </c>
       <c r="C148">
@@ -2408,7 +2408,7 @@
     <row r="149">
       <c r="B149" t="inlineStr">
         <is>
-          <t>ATLAHUILCO</t>
+          <t>Atlahuilco</t>
         </is>
       </c>
       <c r="C149">
@@ -2421,7 +2421,7 @@
     <row r="150">
       <c r="B150" t="inlineStr">
         <is>
-          <t>CALCAHUALCO</t>
+          <t>Calcahualco</t>
         </is>
       </c>
       <c r="C150">
@@ -2434,7 +2434,7 @@
     <row r="151">
       <c r="B151" t="inlineStr">
         <is>
-          <t>COSCOMATEPEC</t>
+          <t>Coscomatepec</t>
         </is>
       </c>
       <c r="C151">
@@ -2447,7 +2447,7 @@
     <row r="152">
       <c r="B152" t="inlineStr">
         <is>
-          <t>ESPINAL</t>
+          <t>Espinal</t>
         </is>
       </c>
       <c r="C152">
@@ -2460,7 +2460,7 @@
     <row r="153">
       <c r="B153" t="inlineStr">
         <is>
-          <t>HUAYACOCOTLA</t>
+          <t>Huayacocotla</t>
         </is>
       </c>
       <c r="C153">
@@ -2473,7 +2473,7 @@
     <row r="154">
       <c r="B154" t="inlineStr">
         <is>
-          <t>LA ANTIGUA</t>
+          <t>La Antigua</t>
         </is>
       </c>
       <c r="C154">
@@ -2486,7 +2486,7 @@
     <row r="155">
       <c r="B155" t="inlineStr">
         <is>
-          <t>MIXTLA DE ALTAMIRANO</t>
+          <t>Mixtla De Altamirano</t>
         </is>
       </c>
       <c r="C155">
@@ -2499,7 +2499,7 @@
     <row r="156">
       <c r="B156" t="inlineStr">
         <is>
-          <t>NO SE REGISTRÓ EL MUNICIPIO/CONDADO/ALCALDÍA DE NACIMIENTO</t>
+          <t>No Se Registró El Municipio/Condado/Alcaldía De Nacimiento</t>
         </is>
       </c>
       <c r="C156">
@@ -2512,7 +2512,7 @@
     <row r="157">
       <c r="B157" t="inlineStr">
         <is>
-          <t>ORIZABA</t>
+          <t>Orizaba</t>
         </is>
       </c>
       <c r="C157">
@@ -2525,7 +2525,7 @@
     <row r="158">
       <c r="B158" t="inlineStr">
         <is>
-          <t>VERACRUZ</t>
+          <t>Veracruz</t>
         </is>
       </c>
       <c r="C158">
@@ -2538,7 +2538,7 @@
     <row r="159">
       <c r="B159" t="inlineStr">
         <is>
-          <t>ZONGOLICA</t>
+          <t>Zongolica</t>
         </is>
       </c>
       <c r="C159">
@@ -2551,7 +2551,7 @@
     <row r="160">
       <c r="B160" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C160">
@@ -2564,12 +2564,12 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>ZACATECAS</t>
+          <t>Zacatecas</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>FRESNILLO</t>
+          <t>Fresnillo</t>
         </is>
       </c>
       <c r="C161">
@@ -2582,7 +2582,7 @@
     <row r="162">
       <c r="B162" t="inlineStr">
         <is>
-          <t>GUADALUPE</t>
+          <t>Guadalupe</t>
         </is>
       </c>
       <c r="C162">
@@ -2595,7 +2595,7 @@
     <row r="163">
       <c r="B163" t="inlineStr">
         <is>
-          <t>OJOCALIENTE</t>
+          <t>Ojocaliente</t>
         </is>
       </c>
       <c r="C163">
@@ -2608,7 +2608,7 @@
     <row r="164">
       <c r="B164" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C164">
@@ -2621,7 +2621,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C165">
@@ -2629,41 +2629,6 @@
       </c>
       <c r="D165">
         <v>1</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 789,030</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de Mexicanas y Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>Noviembre de 2024</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2023/MONTANA_2023.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2023/MONTANA_2023.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Calvillo</t>
@@ -411,6 +416,11 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Total</t>
@@ -442,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Total</t>
@@ -473,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Angel Albino Corzo</t>
@@ -486,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>El Bosque</t>
@@ -499,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Frontera Comalapa</t>
@@ -512,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Ixtapa</t>
@@ -525,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Mapastepec</t>
@@ -538,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Mitontic</t>
@@ -551,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Ocosingo</t>
@@ -564,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Ocotepec</t>
@@ -577,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Palenque</t>
@@ -590,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>San Cristóbal De Las Casas</t>
@@ -603,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Siltepec</t>
@@ -616,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Simojovel</t>
@@ -629,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Tapachula</t>
@@ -642,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Tecpatán</t>
@@ -655,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Tuxtla Gutiérrez</t>
@@ -668,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Villaflores</t>
@@ -681,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Total</t>
@@ -712,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Chihuahua</t>
@@ -725,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -738,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Ignacio Zaragoza</t>
@@ -751,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Juárez</t>
@@ -764,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Nuevo Casas Grandes</t>
@@ -777,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Saucillo</t>
@@ -790,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Total</t>
@@ -821,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -834,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -847,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -860,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Miguel Hidalgo</t>
@@ -873,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Total</t>
@@ -904,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Piedras Negras</t>
@@ -917,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Torreón</t>
@@ -930,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Total</t>
@@ -961,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Durango</t>
@@ -974,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Guadalupe Victoria</t>
@@ -987,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Mapimí</t>
@@ -1000,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Vicente Guerrero</t>
@@ -1013,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1044,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Atlacomulco</t>
@@ -1057,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Ecatepec De Morelos</t>
@@ -1070,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Jocotitlán</t>
@@ -1083,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Nezahualcóyotl</t>
@@ -1096,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>San Felipe Del Progreso</t>
@@ -1109,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Tenancingo</t>
@@ -1122,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Toluca</t>
@@ -1135,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Villa Guerrero</t>
@@ -1148,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Villa Victoria</t>
@@ -1161,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1192,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Apaseo El Alto</t>
@@ -1205,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Celaya</t>
@@ -1218,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Doctor Mora</t>
@@ -1231,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Guanajuato</t>
@@ -1244,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>León</t>
@@ -1257,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Romita</t>
@@ -1270,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>San Luis De La Paz</t>
@@ -1283,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>San Miguel De Allende</t>
@@ -1296,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Santa Cruz De Juventino Rosas</t>
@@ -1309,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Silao De La Victoria</t>
@@ -1322,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Villagrán</t>
@@ -1335,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1366,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Chilpancingo De Los Bravo</t>
@@ -1379,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Coyuca De Benítez</t>
@@ -1392,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Tecoanapa</t>
@@ -1405,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Técpan De Galeana</t>
@@ -1418,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Zirándaro</t>
@@ -1431,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1462,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>Pachuca De Soto</t>
@@ -1475,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>Tezontepec De Aldama</t>
@@ -1488,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>Tulancingo De Bravo</t>
@@ -1501,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1532,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Ayutla</t>
@@ -1545,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Cabo Corrientes</t>
@@ -1558,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>Casimiro Castillo</t>
@@ -1571,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>Colotlán</t>
@@ -1584,6 +1964,11 @@
       </c>
     </row>
     <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -1597,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>Jesús María</t>
@@ -1610,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>Lagos De Moreno</t>
@@ -1623,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>Ojuelos De Jalisco</t>
@@ -1636,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>San Gabriel</t>
@@ -1649,6 +2054,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>San Juan De Los Lagos</t>
@@ -1662,6 +2072,11 @@
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>Tequila</t>
@@ -1675,6 +2090,11 @@
       </c>
     </row>
     <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B97" t="inlineStr">
         <is>
           <t>Tizapán El Alto</t>
@@ -1688,6 +2108,11 @@
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>Tolimán</t>
@@ -1701,6 +2126,11 @@
       </c>
     </row>
     <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B99" t="inlineStr">
         <is>
           <t>Tomatlán</t>
@@ -1714,6 +2144,11 @@
       </c>
     </row>
     <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B100" t="inlineStr">
         <is>
           <t>Zapopan</t>
@@ -1727,6 +2162,11 @@
       </c>
     </row>
     <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1758,6 +2198,11 @@
       </c>
     </row>
     <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B103" t="inlineStr">
         <is>
           <t>Paracho</t>
@@ -1771,6 +2216,11 @@
       </c>
     </row>
     <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B104" t="inlineStr">
         <is>
           <t>Pátzcuaro</t>
@@ -1784,6 +2234,11 @@
       </c>
     </row>
     <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B105" t="inlineStr">
         <is>
           <t>Tlalpujahua</t>
@@ -1797,6 +2252,11 @@
       </c>
     </row>
     <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B106" t="inlineStr">
         <is>
           <t>Uruapan</t>
@@ -1810,6 +2270,11 @@
       </c>
     </row>
     <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B107" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1841,6 +2306,11 @@
       </c>
     </row>
     <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B109" t="inlineStr">
         <is>
           <t>San Blas</t>
@@ -1854,6 +2324,11 @@
       </c>
     </row>
     <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B110" t="inlineStr">
         <is>
           <t>Santiago Ixcuintla</t>
@@ -1867,6 +2342,11 @@
       </c>
     </row>
     <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B111" t="inlineStr">
         <is>
           <t>Tuxpan</t>
@@ -1880,6 +2360,11 @@
       </c>
     </row>
     <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B112" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1911,6 +2396,11 @@
       </c>
     </row>
     <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B114" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1942,6 +2432,11 @@
       </c>
     </row>
     <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B116" t="inlineStr">
         <is>
           <t>San Lucas Zoquiápam</t>
@@ -1955,6 +2450,11 @@
       </c>
     </row>
     <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B117" t="inlineStr">
         <is>
           <t>Santa María Chimalapa</t>
@@ -1968,6 +2468,11 @@
       </c>
     </row>
     <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B118" t="inlineStr">
         <is>
           <t>Santa María Tonameca</t>
@@ -1981,6 +2486,11 @@
       </c>
     </row>
     <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B119" t="inlineStr">
         <is>
           <t>Tlacolula De Matamoros</t>
@@ -1994,6 +2504,11 @@
       </c>
     </row>
     <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B120" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2025,6 +2540,11 @@
       </c>
     </row>
     <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B122" t="inlineStr">
         <is>
           <t>Chignahuapan</t>
@@ -2038,6 +2558,11 @@
       </c>
     </row>
     <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B123" t="inlineStr">
         <is>
           <t>Cuyoaco</t>
@@ -2051,6 +2576,11 @@
       </c>
     </row>
     <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B124" t="inlineStr">
         <is>
           <t>Jalpan</t>
@@ -2064,6 +2594,11 @@
       </c>
     </row>
     <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B125" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -2077,6 +2612,11 @@
       </c>
     </row>
     <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B126" t="inlineStr">
         <is>
           <t>San Martín Totoltepec</t>
@@ -2090,6 +2630,11 @@
       </c>
     </row>
     <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B127" t="inlineStr">
         <is>
           <t>Vicente Guerrero</t>
@@ -2103,6 +2648,11 @@
       </c>
     </row>
     <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B128" t="inlineStr">
         <is>
           <t>Zacatlán</t>
@@ -2116,6 +2666,11 @@
       </c>
     </row>
     <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B129" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2147,6 +2702,11 @@
       </c>
     </row>
     <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B131" t="inlineStr">
         <is>
           <t>Querétaro</t>
@@ -2160,6 +2720,11 @@
       </c>
     </row>
     <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B132" t="inlineStr">
         <is>
           <t>Tequisquiapan</t>
@@ -2173,6 +2738,11 @@
       </c>
     </row>
     <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B133" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2204,6 +2774,11 @@
       </c>
     </row>
     <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B135" t="inlineStr">
         <is>
           <t>Ebano</t>
@@ -2217,6 +2792,11 @@
       </c>
     </row>
     <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B136" t="inlineStr">
         <is>
           <t>Mexquitic De Carmona</t>
@@ -2230,6 +2810,11 @@
       </c>
     </row>
     <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B137" t="inlineStr">
         <is>
           <t>Salinas</t>
@@ -2243,6 +2828,11 @@
       </c>
     </row>
     <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B138" t="inlineStr">
         <is>
           <t>San Luis Potosí</t>
@@ -2256,6 +2846,11 @@
       </c>
     </row>
     <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B139" t="inlineStr">
         <is>
           <t>Villa De Ramos</t>
@@ -2269,6 +2864,11 @@
       </c>
     </row>
     <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B140" t="inlineStr">
         <is>
           <t>Xilitla</t>
@@ -2282,6 +2882,11 @@
       </c>
     </row>
     <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B141" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2313,6 +2918,11 @@
       </c>
     </row>
     <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B143" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2344,6 +2954,11 @@
       </c>
     </row>
     <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B145" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2375,6 +2990,11 @@
       </c>
     </row>
     <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B147" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2406,6 +3026,11 @@
       </c>
     </row>
     <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B149" t="inlineStr">
         <is>
           <t>Atlahuilco</t>
@@ -2419,6 +3044,11 @@
       </c>
     </row>
     <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B150" t="inlineStr">
         <is>
           <t>Calcahualco</t>
@@ -2432,6 +3062,11 @@
       </c>
     </row>
     <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B151" t="inlineStr">
         <is>
           <t>Coscomatepec</t>
@@ -2445,6 +3080,11 @@
       </c>
     </row>
     <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B152" t="inlineStr">
         <is>
           <t>Espinal</t>
@@ -2458,6 +3098,11 @@
       </c>
     </row>
     <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B153" t="inlineStr">
         <is>
           <t>Huayacocotla</t>
@@ -2471,6 +3116,11 @@
       </c>
     </row>
     <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B154" t="inlineStr">
         <is>
           <t>La Antigua</t>
@@ -2484,6 +3134,11 @@
       </c>
     </row>
     <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B155" t="inlineStr">
         <is>
           <t>Mixtla De Altamirano</t>
@@ -2497,6 +3152,11 @@
       </c>
     </row>
     <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B156" t="inlineStr">
         <is>
           <t>No Se Registró El Municipio/Condado/Alcaldía De Nacimiento</t>
@@ -2510,6 +3170,11 @@
       </c>
     </row>
     <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B157" t="inlineStr">
         <is>
           <t>Orizaba</t>
@@ -2523,6 +3188,11 @@
       </c>
     </row>
     <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B158" t="inlineStr">
         <is>
           <t>Veracruz</t>
@@ -2536,6 +3206,11 @@
       </c>
     </row>
     <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B159" t="inlineStr">
         <is>
           <t>Zongolica</t>
@@ -2549,6 +3224,11 @@
       </c>
     </row>
     <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B160" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2580,6 +3260,11 @@
       </c>
     </row>
     <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B162" t="inlineStr">
         <is>
           <t>Guadalupe</t>
@@ -2593,6 +3278,11 @@
       </c>
     </row>
     <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B163" t="inlineStr">
         <is>
           <t>Ojocaliente</t>
@@ -2606,6 +3296,11 @@
       </c>
     </row>
     <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B164" t="inlineStr">
         <is>
           <t>Total</t>
